--- a/Code/Results/Cases/Case_0_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_171/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1075218782947758</v>
+        <v>0.1481638611118683</v>
       </c>
       <c r="D2">
-        <v>0.06957349006793123</v>
+        <v>0.09410957921863172</v>
       </c>
       <c r="E2">
-        <v>0.07670544588757977</v>
+        <v>0.1393632720748528</v>
       </c>
       <c r="F2">
-        <v>1.323537975850584</v>
+        <v>2.504620371392278</v>
       </c>
       <c r="G2">
-        <v>1.031908667928121</v>
+        <v>1.799140899952462</v>
       </c>
       <c r="H2">
-        <v>0.6838763290851944</v>
+        <v>1.567977822701863</v>
       </c>
       <c r="I2">
-        <v>0.943640379634445</v>
+        <v>1.785663279673443</v>
       </c>
       <c r="J2">
-        <v>0.1022273412559471</v>
+        <v>0.2125269747954945</v>
       </c>
       <c r="K2">
-        <v>3.94353808936944</v>
+        <v>2.310733107587055</v>
       </c>
       <c r="L2">
-        <v>0.1026990874091211</v>
+        <v>0.2141147150665432</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8797332101474424</v>
+        <v>1.584938913018448</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.09693976892971534</v>
+        <v>0.1458957587269794</v>
       </c>
       <c r="D3">
-        <v>0.06227353498903909</v>
+        <v>0.09232494463840624</v>
       </c>
       <c r="E3">
-        <v>0.07109104687616608</v>
+        <v>0.1385824311786337</v>
       </c>
       <c r="F3">
-        <v>1.257071534864508</v>
+        <v>2.508053576015726</v>
       </c>
       <c r="G3">
-        <v>0.9754381756279003</v>
+        <v>1.801340132458861</v>
       </c>
       <c r="H3">
-        <v>0.6667601164807735</v>
+        <v>1.575535957438319</v>
       </c>
       <c r="I3">
-        <v>0.8968660137761546</v>
+        <v>1.788478908637337</v>
       </c>
       <c r="J3">
-        <v>0.09699045714926058</v>
+        <v>0.2124992065843045</v>
       </c>
       <c r="K3">
-        <v>3.435409816053664</v>
+        <v>2.17386656949293</v>
       </c>
       <c r="L3">
-        <v>0.09697534182456735</v>
+        <v>0.2137970777133376</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9123631288440492</v>
+        <v>1.599329280835818</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09051831011592526</v>
+        <v>0.1445518762630513</v>
       </c>
       <c r="D4">
-        <v>0.05782047581817551</v>
+        <v>0.09125138132426969</v>
       </c>
       <c r="E4">
-        <v>0.06772121878292481</v>
+        <v>0.1381524701775554</v>
       </c>
       <c r="F4">
-        <v>1.219026082858321</v>
+        <v>2.511525539358104</v>
       </c>
       <c r="G4">
-        <v>0.9432724995856177</v>
+        <v>1.803816231146342</v>
       </c>
       <c r="H4">
-        <v>0.657660223757631</v>
+        <v>1.58093262398792</v>
       </c>
       <c r="I4">
-        <v>0.8701610545475589</v>
+        <v>1.791192849312914</v>
       </c>
       <c r="J4">
-        <v>0.09392341484068112</v>
+        <v>0.2125692143848781</v>
       </c>
       <c r="K4">
-        <v>3.125512083938304</v>
+        <v>2.090560682656587</v>
       </c>
       <c r="L4">
-        <v>0.09358394401203185</v>
+        <v>0.2136800019165932</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9336365834611016</v>
+        <v>1.608766439860702</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08791906835834595</v>
+        <v>0.1440165468228969</v>
       </c>
       <c r="D5">
-        <v>0.05601241203211771</v>
+        <v>0.09081952919055425</v>
       </c>
       <c r="E5">
-        <v>0.06636623549224652</v>
+        <v>0.137989730390057</v>
       </c>
       <c r="F5">
-        <v>1.204174086495655</v>
+        <v>2.513283108557602</v>
       </c>
       <c r="G5">
-        <v>0.9307531806637428</v>
+        <v>1.805107875645874</v>
       </c>
       <c r="H5">
-        <v>0.6542870646275531</v>
+        <v>1.583321824385976</v>
       </c>
       <c r="I5">
-        <v>0.8597533720803696</v>
+        <v>1.792546307337368</v>
       </c>
       <c r="J5">
-        <v>0.09270874726217926</v>
+        <v>0.2126196528233777</v>
       </c>
       <c r="K5">
-        <v>2.999676916232261</v>
+        <v>2.056798062195867</v>
       </c>
       <c r="L5">
-        <v>0.09223112315126514</v>
+        <v>0.2136519279173967</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9426076532081424</v>
+        <v>1.612763495069309</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08748848298453993</v>
+        <v>0.143928401175188</v>
       </c>
       <c r="D6">
-        <v>0.05571256223248611</v>
+        <v>0.09074816217341919</v>
       </c>
       <c r="E6">
-        <v>0.06614230948255084</v>
+        <v>0.1379634618182983</v>
       </c>
       <c r="F6">
-        <v>1.20174607236676</v>
+        <v>2.513595643195785</v>
       </c>
       <c r="G6">
-        <v>0.9287087184254403</v>
+        <v>1.8053394078336</v>
       </c>
       <c r="H6">
-        <v>0.6537466527369133</v>
+        <v>1.583730023663179</v>
       </c>
       <c r="I6">
-        <v>0.8580529689899521</v>
+        <v>1.79278599051873</v>
       </c>
       <c r="J6">
-        <v>0.09250911709133192</v>
+        <v>0.2126293519277667</v>
       </c>
       <c r="K6">
-        <v>2.978807174877261</v>
+        <v>2.0512030340401</v>
       </c>
       <c r="L6">
-        <v>0.09200820349350636</v>
+        <v>0.2136484531541925</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9441152651851752</v>
+        <v>1.613436346619892</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09048318673544031</v>
+        <v>0.1445446066887257</v>
       </c>
       <c r="D7">
-        <v>0.0577960658704697</v>
+        <v>0.09124553433974825</v>
       </c>
       <c r="E7">
-        <v>0.0677028726738591</v>
+        <v>0.138150224868145</v>
       </c>
       <c r="F7">
-        <v>1.218823199908741</v>
+        <v>2.511547855263046</v>
       </c>
       <c r="G7">
-        <v>0.9431013307173544</v>
+        <v>1.803832507046693</v>
       </c>
       <c r="H7">
-        <v>0.657613399907234</v>
+        <v>1.580964076319262</v>
       </c>
       <c r="I7">
-        <v>0.8700188110246003</v>
+        <v>1.791210100671563</v>
       </c>
       <c r="J7">
-        <v>0.09390689371480221</v>
+        <v>0.2125698058796885</v>
       </c>
       <c r="K7">
-        <v>3.123813298971527</v>
+        <v>2.090104596322874</v>
       </c>
       <c r="L7">
-        <v>0.09356558336715892</v>
+        <v>0.2136795437538694</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9337563598650291</v>
+        <v>1.608819732651391</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1038564213956192</v>
+        <v>0.1473717362805331</v>
       </c>
       <c r="D8">
-        <v>0.06704995606001063</v>
+        <v>0.09348965617248695</v>
       </c>
       <c r="E8">
-        <v>0.0747527668341661</v>
+        <v>0.139083786924342</v>
       </c>
       <c r="F8">
-        <v>1.300019364578873</v>
+        <v>2.505520884517125</v>
       </c>
       <c r="G8">
-        <v>1.011891059153129</v>
+        <v>1.799665256687859</v>
       </c>
       <c r="H8">
-        <v>0.6776700929036394</v>
+        <v>1.57042692585641</v>
       </c>
       <c r="I8">
-        <v>0.9270746424291261</v>
+        <v>1.786429510072125</v>
       </c>
       <c r="J8">
-        <v>0.100389521370289</v>
+        <v>0.2124993419410401</v>
       </c>
       <c r="K8">
-        <v>3.767852996970532</v>
+        <v>2.263390689267794</v>
       </c>
       <c r="L8">
-        <v>0.100698932559304</v>
+        <v>0.2139890333429904</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8907210452877408</v>
+        <v>1.58977595028778</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1307612671099037</v>
+        <v>0.1533003704920191</v>
       </c>
       <c r="D9">
-        <v>0.08546490888246439</v>
+        <v>0.09806472885688322</v>
       </c>
       <c r="E9">
-        <v>0.08925207680778868</v>
+        <v>0.1413059487735673</v>
       </c>
       <c r="F9">
-        <v>1.48330230544353</v>
+        <v>2.504539314294831</v>
       </c>
       <c r="G9">
-        <v>1.168728614623831</v>
+        <v>1.800449138734294</v>
       </c>
       <c r="H9">
-        <v>0.7291247252342146</v>
+        <v>1.555765956234453</v>
       </c>
       <c r="I9">
-        <v>1.056494205571397</v>
+        <v>1.78488315798343</v>
       </c>
       <c r="J9">
-        <v>0.114384475442435</v>
+        <v>0.2130513522610045</v>
       </c>
       <c r="K9">
-        <v>5.051211165487871</v>
+        <v>2.608957320897218</v>
       </c>
       <c r="L9">
-        <v>0.1157480997760842</v>
+        <v>0.2152132706200618</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8166151329628804</v>
+        <v>1.557198541196563</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1510606548974351</v>
+        <v>0.157888405100195</v>
       </c>
       <c r="D10">
-        <v>0.09921502901870127</v>
+        <v>0.1015302327964918</v>
       </c>
       <c r="E10">
-        <v>0.100407410059983</v>
+        <v>0.1431760084668099</v>
       </c>
       <c r="F10">
-        <v>1.635826354339741</v>
+        <v>2.510449797784929</v>
       </c>
       <c r="G10">
-        <v>1.300424840795387</v>
+        <v>1.806520622307033</v>
       </c>
       <c r="H10">
-        <v>0.7757392787062258</v>
+        <v>1.548661165496299</v>
       </c>
       <c r="I10">
-        <v>1.164606978978924</v>
+        <v>1.788538795477763</v>
       </c>
       <c r="J10">
-        <v>0.1256075178905149</v>
+        <v>0.2138772485301743</v>
       </c>
       <c r="K10">
-        <v>6.012329673820147</v>
+        <v>2.866320677326541</v>
       </c>
       <c r="L10">
-        <v>0.1275800783151055</v>
+        <v>0.2164877919457879</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7691294660113712</v>
+        <v>1.536164210111103</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1604399721410061</v>
+        <v>0.1600256289665083</v>
       </c>
       <c r="D11">
-        <v>0.1055324090877576</v>
+        <v>0.1031289923987941</v>
       </c>
       <c r="E11">
-        <v>0.1056139034822259</v>
+        <v>0.1440780756842628</v>
       </c>
       <c r="F11">
-        <v>1.709879502104684</v>
+        <v>2.514584378481658</v>
       </c>
       <c r="G11">
-        <v>1.364673057018678</v>
+        <v>1.810484017901842</v>
       </c>
       <c r="H11">
-        <v>0.7992080989727128</v>
+        <v>1.546226948277564</v>
       </c>
       <c r="I11">
-        <v>1.217194397254914</v>
+        <v>1.791246758873683</v>
       </c>
       <c r="J11">
-        <v>0.130956645150853</v>
+        <v>0.2143441828169514</v>
       </c>
       <c r="K11">
-        <v>6.454962778224569</v>
+        <v>2.984151908180593</v>
       </c>
       <c r="L11">
-        <v>0.1331627753504137</v>
+        <v>0.2171488102335317</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7492076308791908</v>
+        <v>1.527223798356935</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.164015160105464</v>
+        <v>0.1608420973962694</v>
       </c>
       <c r="D12">
-        <v>0.1079348896822836</v>
+        <v>0.103737562828556</v>
       </c>
       <c r="E12">
-        <v>0.1076064826003673</v>
+        <v>0.144427026568561</v>
       </c>
       <c r="F12">
-        <v>1.738665442315039</v>
+        <v>2.516358356074633</v>
       </c>
       <c r="G12">
-        <v>1.389696316793305</v>
+        <v>1.812158219853984</v>
       </c>
       <c r="H12">
-        <v>0.8084529377869671</v>
+        <v>1.545420025940672</v>
       </c>
       <c r="I12">
-        <v>1.237650762957273</v>
+        <v>1.792422780562234</v>
       </c>
       <c r="J12">
-        <v>0.1330208673694955</v>
+        <v>0.2145341072007909</v>
       </c>
       <c r="K12">
-        <v>6.623486389887091</v>
+        <v>3.028879146411725</v>
       </c>
       <c r="L12">
-        <v>0.1353084979825852</v>
+        <v>0.2174107760586992</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7419210326619208</v>
+        <v>1.52392857315909</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1632440928623566</v>
+        <v>0.160665939294347</v>
       </c>
       <c r="D13">
-        <v>0.1074169963865188</v>
+        <v>0.1036063567702001</v>
       </c>
       <c r="E13">
-        <v>0.1071763769862173</v>
+        <v>0.1443515469793404</v>
       </c>
       <c r="F13">
-        <v>1.732431578263203</v>
+        <v>2.515967027766209</v>
       </c>
       <c r="G13">
-        <v>1.384275064834128</v>
+        <v>1.811789931377859</v>
       </c>
       <c r="H13">
-        <v>0.8064454410584858</v>
+        <v>1.545588700248544</v>
       </c>
       <c r="I13">
-        <v>1.233220088387739</v>
+        <v>1.792162801487564</v>
       </c>
       <c r="J13">
-        <v>0.1325745216818106</v>
+        <v>0.2144926208618188</v>
       </c>
       <c r="K13">
-        <v>6.587149230997056</v>
+        <v>3.019241595576261</v>
       </c>
       <c r="L13">
-        <v>0.1348449206265911</v>
+        <v>0.2173538392311016</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.743478617600779</v>
+        <v>1.524634242345762</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1607336194459066</v>
+        <v>0.1600926573795078</v>
       </c>
       <c r="D14">
-        <v>0.1057298500397366</v>
+        <v>0.1031789969086816</v>
       </c>
       <c r="E14">
-        <v>0.1057774011243353</v>
+        <v>0.1441066367911468</v>
       </c>
       <c r="F14">
-        <v>1.712232397218571</v>
+        <v>2.514726147775775</v>
       </c>
       <c r="G14">
-        <v>1.366717405213507</v>
+        <v>1.810618277953296</v>
       </c>
       <c r="H14">
-        <v>0.799961312913382</v>
+        <v>1.546158259443558</v>
       </c>
       <c r="I14">
-        <v>1.218866158566527</v>
+        <v>1.791340491379785</v>
       </c>
       <c r="J14">
-        <v>0.1311256741462543</v>
+        <v>0.214359545405344</v>
       </c>
       <c r="K14">
-        <v>6.468808331613616</v>
+        <v>2.987829506968239</v>
       </c>
       <c r="L14">
-        <v>0.1333386529357483</v>
+        <v>0.2171701289472381</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7486029040966358</v>
+        <v>1.526950888248898</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1591990161207804</v>
+        <v>0.1597424348741896</v>
       </c>
       <c r="D15">
-        <v>0.1046977952531449</v>
+        <v>0.1029176360447934</v>
       </c>
       <c r="E15">
-        <v>0.1049232854244195</v>
+        <v>0.1439575795511061</v>
       </c>
       <c r="F15">
-        <v>1.699958917487862</v>
+        <v>2.513993211547785</v>
       </c>
       <c r="G15">
-        <v>1.356055382008748</v>
+        <v>1.809923199085603</v>
       </c>
       <c r="H15">
-        <v>0.7960371897397636</v>
+        <v>1.546522093703175</v>
       </c>
       <c r="I15">
-        <v>1.210146285354213</v>
+        <v>1.790856421106156</v>
       </c>
       <c r="J15">
-        <v>0.130243355240232</v>
+        <v>0.2142797393430484</v>
       </c>
       <c r="K15">
-        <v>6.396443427161955</v>
+        <v>2.968602599829694</v>
       </c>
       <c r="L15">
-        <v>0.1324202357720523</v>
+        <v>0.2170591177595682</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7517756893799117</v>
+        <v>1.528381661901612</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1504508286339501</v>
+        <v>0.1577497358514961</v>
       </c>
       <c r="D16">
-        <v>0.09880353321667457</v>
+        <v>0.1014261942670913</v>
       </c>
       <c r="E16">
-        <v>0.1000699763525326</v>
+        <v>0.1431180874157079</v>
       </c>
       <c r="F16">
-        <v>1.631086780085511</v>
+        <v>2.510208720810141</v>
       </c>
       <c r="G16">
-        <v>1.296319205916518</v>
+        <v>1.806285831042061</v>
       </c>
       <c r="H16">
-        <v>0.7742537690499773</v>
+        <v>1.548836312909799</v>
       </c>
       <c r="I16">
-        <v>1.161243214402774</v>
+        <v>1.788382877718888</v>
       </c>
       <c r="J16">
-        <v>0.1252631421165162</v>
+        <v>0.2138485679986744</v>
       </c>
       <c r="K16">
-        <v>5.983522300350785</v>
+        <v>2.858635199386526</v>
       </c>
       <c r="L16">
-        <v>0.1272195057553134</v>
+        <v>0.2164462249962114</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7704665247581985</v>
+        <v>1.536761126253182</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1451230110592547</v>
+        <v>0.1565400718368721</v>
       </c>
       <c r="D17">
-        <v>0.09520442736498325</v>
+        <v>0.1005169152129497</v>
       </c>
       <c r="E17">
-        <v>0.09712779047790221</v>
+        <v>0.1426162219476836</v>
       </c>
       <c r="F17">
-        <v>1.590081104219365</v>
+        <v>2.508257654483288</v>
       </c>
       <c r="G17">
-        <v>1.26083199792555</v>
+        <v>1.804362556720605</v>
       </c>
       <c r="H17">
-        <v>0.7614920758873041</v>
+        <v>1.55046044404645</v>
       </c>
       <c r="I17">
-        <v>1.132151253345128</v>
+        <v>1.787133303623264</v>
       </c>
       <c r="J17">
-        <v>0.1222728035266485</v>
+        <v>0.2136074156691663</v>
       </c>
       <c r="K17">
-        <v>5.731683685867779</v>
+        <v>2.791366144586675</v>
       </c>
       <c r="L17">
-        <v>0.1240822841581419</v>
+        <v>0.216091020206477</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7823737659161765</v>
+        <v>1.542062538441336</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.142072072903531</v>
+        <v>0.1558490244736674</v>
       </c>
       <c r="D18">
-        <v>0.0931401064207833</v>
+        <v>0.09999602241570926</v>
       </c>
       <c r="E18">
-        <v>0.09544780359493643</v>
+        <v>0.1423323988904137</v>
       </c>
       <c r="F18">
-        <v>1.566930503462657</v>
+        <v>2.507271521555879</v>
       </c>
       <c r="G18">
-        <v>1.240824535809338</v>
+        <v>1.803369390921972</v>
       </c>
       <c r="H18">
-        <v>0.754362850022062</v>
+        <v>1.55146968415977</v>
       </c>
       <c r="I18">
-        <v>1.115735506817842</v>
+        <v>1.786512923039666</v>
       </c>
       <c r="J18">
-        <v>0.1205755454530433</v>
+        <v>0.2134772989265272</v>
       </c>
       <c r="K18">
-        <v>5.587334045857233</v>
+        <v>2.75274594971728</v>
       </c>
       <c r="L18">
-        <v>0.1222965000899165</v>
+        <v>0.215894363442473</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7893795611392278</v>
+        <v>1.545170901440819</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1410413181080941</v>
+        <v>0.1556158600035644</v>
       </c>
       <c r="D19">
-        <v>0.09244212088017889</v>
+        <v>0.09982001933874329</v>
       </c>
       <c r="E19">
-        <v>0.09488103931522573</v>
+        <v>0.1422371328737597</v>
       </c>
       <c r="F19">
-        <v>1.559164691398777</v>
+        <v>2.506960992153125</v>
       </c>
       <c r="G19">
-        <v>1.234117689274314</v>
+        <v>1.803052520925178</v>
       </c>
       <c r="H19">
-        <v>0.7519843178279473</v>
+        <v>1.551824286807232</v>
       </c>
       <c r="I19">
-        <v>1.110230363989473</v>
+        <v>1.786319753823236</v>
       </c>
       <c r="J19">
-        <v>0.1200046791546612</v>
+        <v>0.2134347189595118</v>
       </c>
       <c r="K19">
-        <v>5.538542094944489</v>
+        <v>2.739682087910182</v>
       </c>
       <c r="L19">
-        <v>0.1216949863126047</v>
+        <v>0.2158290932057412</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7917781195698268</v>
+        <v>1.54623349632481</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1456887530448085</v>
+        <v>0.1566683546111847</v>
       </c>
       <c r="D20">
-        <v>0.095586950421513</v>
+        <v>0.1006134924914761</v>
       </c>
       <c r="E20">
-        <v>0.09743970608910502</v>
+        <v>0.1426691460160683</v>
       </c>
       <c r="F20">
-        <v>1.594400729046171</v>
+        <v>2.508451263416646</v>
       </c>
       <c r="G20">
-        <v>1.264567390319769</v>
+        <v>1.804555588011169</v>
       </c>
       <c r="H20">
-        <v>0.7628285225719083</v>
+        <v>1.550279780695206</v>
       </c>
       <c r="I20">
-        <v>1.135214948570564</v>
+        <v>1.787256142746017</v>
       </c>
       <c r="J20">
-        <v>0.1225887553853653</v>
+        <v>0.2136321980418785</v>
       </c>
       <c r="K20">
-        <v>5.758439560128068</v>
+        <v>2.798519693784044</v>
       </c>
       <c r="L20">
-        <v>0.1244142952346152</v>
+        <v>0.2161280410695881</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7810898539475986</v>
+        <v>1.541492074407955</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1614703482215418</v>
+        <v>0.1602608506258605</v>
       </c>
       <c r="D21">
-        <v>0.1062251176730769</v>
+        <v>0.1033044376316639</v>
       </c>
       <c r="E21">
-        <v>0.1061877273728058</v>
+        <v>0.1441783733965032</v>
       </c>
       <c r="F21">
-        <v>1.71814459484311</v>
+        <v>2.515084967950685</v>
       </c>
       <c r="G21">
-        <v>1.371855093635617</v>
+        <v>1.810957711622336</v>
       </c>
       <c r="H21">
-        <v>0.801855878373317</v>
+        <v>1.545987847608018</v>
       </c>
       <c r="I21">
-        <v>1.223067082083304</v>
+        <v>1.791577934780875</v>
       </c>
       <c r="J21">
-        <v>0.1315501573106204</v>
+        <v>0.2143982772817452</v>
       </c>
       <c r="K21">
-        <v>6.503542183187278</v>
+        <v>2.997053103893734</v>
       </c>
       <c r="L21">
-        <v>0.133780196277911</v>
+        <v>0.2172237730893016</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.747090658565547</v>
+        <v>1.526267982205077</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1719225658192869</v>
+        <v>0.16265039324432</v>
       </c>
       <c r="D22">
-        <v>0.1132380529006269</v>
+        <v>0.1050814920522924</v>
       </c>
       <c r="E22">
-        <v>0.1120285126239189</v>
+        <v>0.1452076132466829</v>
       </c>
       <c r="F22">
-        <v>1.803391402131041</v>
+        <v>2.520634802084516</v>
       </c>
       <c r="G22">
-        <v>1.446055584947288</v>
+        <v>1.816152560294967</v>
       </c>
       <c r="H22">
-        <v>0.8294647528892654</v>
+        <v>1.543852398260753</v>
       </c>
       <c r="I22">
-        <v>1.283674801703711</v>
+        <v>1.795280285113478</v>
       </c>
       <c r="J22">
-        <v>0.1376339976080416</v>
+        <v>0.2149753436971906</v>
       </c>
       <c r="K22">
-        <v>6.995872258776899</v>
+        <v>3.127429784821004</v>
       </c>
       <c r="L22">
-        <v>0.1400875278650489</v>
+        <v>0.2180078042998304</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7263787849283574</v>
+        <v>1.516844576879414</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1663304697193411</v>
+        <v>0.1613712580536202</v>
       </c>
       <c r="D23">
-        <v>0.1094891542994958</v>
+        <v>0.1041313804490898</v>
       </c>
       <c r="E23">
-        <v>0.1088991584163672</v>
+        <v>0.1446543752366125</v>
       </c>
       <c r="F23">
-        <v>1.7574677389388</v>
+        <v>2.51756151109015</v>
       </c>
       <c r="G23">
-        <v>1.406054999386896</v>
+        <v>1.813287299577865</v>
       </c>
       <c r="H23">
-        <v>0.8145255504309148</v>
+        <v>1.544930813688325</v>
       </c>
       <c r="I23">
-        <v>1.251016511652793</v>
+        <v>1.79322384942931</v>
       </c>
       <c r="J23">
-        <v>0.1343648882251287</v>
+        <v>0.2146603667974887</v>
       </c>
       <c r="K23">
-        <v>6.732569604368337</v>
+        <v>3.057788729821141</v>
       </c>
       <c r="L23">
-        <v>0.1367031271805104</v>
+        <v>0.2175831479178498</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7372894469618672</v>
+        <v>1.52182586323611</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1454329436122492</v>
+        <v>0.1566103442457205</v>
       </c>
       <c r="D24">
-        <v>0.09541399672502138</v>
+        <v>0.100569824095416</v>
       </c>
       <c r="E24">
-        <v>0.09729865332576537</v>
+        <v>0.1426452043842801</v>
       </c>
       <c r="F24">
-        <v>1.592446511031767</v>
+        <v>2.508363310567248</v>
       </c>
       <c r="G24">
-        <v>1.262877395510515</v>
+        <v>1.804467968010925</v>
       </c>
       <c r="H24">
-        <v>0.7622236706650085</v>
+        <v>1.550361223397601</v>
       </c>
       <c r="I24">
-        <v>1.133828891525852</v>
+        <v>1.787200301876084</v>
       </c>
       <c r="J24">
-        <v>0.1224458455173476</v>
+        <v>0.21362096737613</v>
       </c>
       <c r="K24">
-        <v>5.746341881776743</v>
+        <v>2.795285406861694</v>
       </c>
       <c r="L24">
-        <v>0.1242641376534763</v>
+        <v>0.2161112804017904</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7816698128548083</v>
+        <v>1.541749792698184</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1233984226750096</v>
+        <v>0.1516555706112968</v>
       </c>
       <c r="D25">
-        <v>0.08044887055983452</v>
+        <v>0.0968086023192285</v>
       </c>
       <c r="E25">
-        <v>0.08524843377742286</v>
+        <v>0.140663012971963</v>
       </c>
       <c r="F25">
-        <v>1.430829782619199</v>
+        <v>2.503642090415113</v>
       </c>
       <c r="G25">
-        <v>1.123647544167824</v>
+        <v>1.79927460480036</v>
       </c>
       <c r="H25">
-        <v>0.7137676678668328</v>
+        <v>1.559088787949847</v>
       </c>
       <c r="I25">
-        <v>1.019376106331507</v>
+        <v>1.784461420054896</v>
       </c>
       <c r="J25">
-        <v>0.1104455554996946</v>
+        <v>0.212828174659073</v>
       </c>
       <c r="K25">
-        <v>4.701276864147871</v>
+        <v>2.514859818393177</v>
       </c>
       <c r="L25">
-        <v>0.1115507101462185</v>
+        <v>0.2148161250364069</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8354939762551652</v>
+        <v>1.565501866965739</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_171/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_171/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1481638611118683</v>
+        <v>0.10752187829479</v>
       </c>
       <c r="D2">
-        <v>0.09410957921863172</v>
+        <v>0.06957349006781044</v>
       </c>
       <c r="E2">
-        <v>0.1393632720748528</v>
+        <v>0.07670544588757622</v>
       </c>
       <c r="F2">
-        <v>2.504620371392278</v>
+        <v>1.323537975850584</v>
       </c>
       <c r="G2">
-        <v>1.799140899952462</v>
+        <v>1.031908667928079</v>
       </c>
       <c r="H2">
-        <v>1.567977822701863</v>
+        <v>0.6838763290851944</v>
       </c>
       <c r="I2">
-        <v>1.785663279673443</v>
+        <v>0.9436403796344379</v>
       </c>
       <c r="J2">
-        <v>0.2125269747954945</v>
+        <v>0.1022273412559898</v>
       </c>
       <c r="K2">
-        <v>2.310733107587055</v>
+        <v>3.94353808936927</v>
       </c>
       <c r="L2">
-        <v>0.2141147150665432</v>
+        <v>0.1026990874091638</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.584938913018448</v>
+        <v>0.8797332101474424</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1458957587269794</v>
+        <v>0.09693976892981482</v>
       </c>
       <c r="D3">
-        <v>0.09232494463840624</v>
+        <v>0.06227353498895383</v>
       </c>
       <c r="E3">
-        <v>0.1385824311786337</v>
+        <v>0.07109104687619805</v>
       </c>
       <c r="F3">
-        <v>2.508053576015726</v>
+        <v>1.257071534864508</v>
       </c>
       <c r="G3">
-        <v>1.801340132458861</v>
+        <v>0.9754381756278576</v>
       </c>
       <c r="H3">
-        <v>1.575535957438319</v>
+        <v>0.6667601164807593</v>
       </c>
       <c r="I3">
-        <v>1.788478908637337</v>
+        <v>0.8968660137761404</v>
       </c>
       <c r="J3">
-        <v>0.2124992065843045</v>
+        <v>0.09699045714923926</v>
       </c>
       <c r="K3">
-        <v>2.17386656949293</v>
+        <v>3.435409816053721</v>
       </c>
       <c r="L3">
-        <v>0.2137970777133376</v>
+        <v>0.09697534182454604</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.599329280835818</v>
+        <v>0.9123631288440421</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1445518762630513</v>
+        <v>0.09051831011592526</v>
       </c>
       <c r="D4">
-        <v>0.09125138132426969</v>
+        <v>0.05782047581817551</v>
       </c>
       <c r="E4">
-        <v>0.1381524701775554</v>
+        <v>0.06772121878292126</v>
       </c>
       <c r="F4">
-        <v>2.511525539358104</v>
+        <v>1.219026082858292</v>
       </c>
       <c r="G4">
-        <v>1.803816231146342</v>
+        <v>0.9432724995856319</v>
       </c>
       <c r="H4">
-        <v>1.58093262398792</v>
+        <v>0.6576602237577163</v>
       </c>
       <c r="I4">
-        <v>1.791192849312914</v>
+        <v>0.8701610545475518</v>
       </c>
       <c r="J4">
-        <v>0.2125692143848781</v>
+        <v>0.09392341484073086</v>
       </c>
       <c r="K4">
-        <v>2.090560682656587</v>
+        <v>3.12551208393819</v>
       </c>
       <c r="L4">
-        <v>0.2136800019165932</v>
+        <v>0.09358394401212422</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.608766439860702</v>
+        <v>0.9336365834610945</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1440165468228969</v>
+        <v>0.08791906835834595</v>
       </c>
       <c r="D5">
-        <v>0.09081952919055425</v>
+        <v>0.05601241203230956</v>
       </c>
       <c r="E5">
-        <v>0.137989730390057</v>
+        <v>0.06636623549224296</v>
       </c>
       <c r="F5">
-        <v>2.513283108557602</v>
+        <v>1.204174086495655</v>
       </c>
       <c r="G5">
-        <v>1.805107875645874</v>
+        <v>0.9307531806637286</v>
       </c>
       <c r="H5">
-        <v>1.583321824385976</v>
+        <v>0.6542870646274395</v>
       </c>
       <c r="I5">
-        <v>1.792546307337368</v>
+        <v>0.8597533720803625</v>
       </c>
       <c r="J5">
-        <v>0.2126196528233777</v>
+        <v>0.0927087472622361</v>
       </c>
       <c r="K5">
-        <v>2.056798062195867</v>
+        <v>2.999676916232261</v>
       </c>
       <c r="L5">
-        <v>0.2136519279173967</v>
+        <v>0.09223112315120119</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.612763495069309</v>
+        <v>0.9426076532081353</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.143928401175188</v>
+        <v>0.08748848298478151</v>
       </c>
       <c r="D6">
-        <v>0.09074816217341919</v>
+        <v>0.05571256223248611</v>
       </c>
       <c r="E6">
-        <v>0.1379634618182983</v>
+        <v>0.06614230948254729</v>
       </c>
       <c r="F6">
-        <v>2.513595643195785</v>
+        <v>1.20174607236676</v>
       </c>
       <c r="G6">
-        <v>1.8053394078336</v>
+        <v>0.9287087184254403</v>
       </c>
       <c r="H6">
-        <v>1.583730023663179</v>
+        <v>0.6537466527369133</v>
       </c>
       <c r="I6">
-        <v>1.79278599051873</v>
+        <v>0.8580529689899805</v>
       </c>
       <c r="J6">
-        <v>0.2126293519277667</v>
+        <v>0.09250911709132481</v>
       </c>
       <c r="K6">
-        <v>2.0512030340401</v>
+        <v>2.978807174877318</v>
       </c>
       <c r="L6">
-        <v>0.2136484531541925</v>
+        <v>0.09200820349346372</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.613436346619892</v>
+        <v>0.9441152651851752</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1445446066887257</v>
+        <v>0.09048318673532663</v>
       </c>
       <c r="D7">
-        <v>0.09124553433974825</v>
+        <v>0.05779606587070418</v>
       </c>
       <c r="E7">
-        <v>0.138150224868145</v>
+        <v>0.06770287267386266</v>
       </c>
       <c r="F7">
-        <v>2.511547855263046</v>
+        <v>1.218823199908755</v>
       </c>
       <c r="G7">
-        <v>1.803832507046693</v>
+        <v>0.9431013307173259</v>
       </c>
       <c r="H7">
-        <v>1.580964076319262</v>
+        <v>0.657613399907234</v>
       </c>
       <c r="I7">
-        <v>1.791210100671563</v>
+        <v>0.8700188110245932</v>
       </c>
       <c r="J7">
-        <v>0.2125698058796885</v>
+        <v>0.09390689371476668</v>
       </c>
       <c r="K7">
-        <v>2.090104596322874</v>
+        <v>3.12381329897147</v>
       </c>
       <c r="L7">
-        <v>0.2136795437538694</v>
+        <v>0.09356558336715892</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.608819732651391</v>
+        <v>0.9337563598650291</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1473717362805331</v>
+        <v>0.103856421395605</v>
       </c>
       <c r="D8">
-        <v>0.09348965617248695</v>
+        <v>0.06704995606006747</v>
       </c>
       <c r="E8">
-        <v>0.139083786924342</v>
+        <v>0.07475276683416254</v>
       </c>
       <c r="F8">
-        <v>2.505520884517125</v>
+        <v>1.300019364578873</v>
       </c>
       <c r="G8">
-        <v>1.799665256687859</v>
+        <v>1.011891059153172</v>
       </c>
       <c r="H8">
-        <v>1.57042692585641</v>
+        <v>0.6776700929036537</v>
       </c>
       <c r="I8">
-        <v>1.786429510072125</v>
+        <v>0.9270746424291261</v>
       </c>
       <c r="J8">
-        <v>0.2124993419410401</v>
+        <v>0.1003895213702961</v>
       </c>
       <c r="K8">
-        <v>2.263390689267794</v>
+        <v>3.767852996970532</v>
       </c>
       <c r="L8">
-        <v>0.2139890333429904</v>
+        <v>0.1006989325592684</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.58977595028778</v>
+        <v>0.890721045287755</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1533003704920191</v>
+        <v>0.1307612671098752</v>
       </c>
       <c r="D9">
-        <v>0.09806472885688322</v>
+        <v>0.08546490888257097</v>
       </c>
       <c r="E9">
-        <v>0.1413059487735673</v>
+        <v>0.08925207680775671</v>
       </c>
       <c r="F9">
-        <v>2.504539314294831</v>
+        <v>1.48330230544353</v>
       </c>
       <c r="G9">
-        <v>1.800449138734294</v>
+        <v>1.168728614623845</v>
       </c>
       <c r="H9">
-        <v>1.555765956234453</v>
+        <v>0.7291247252341293</v>
       </c>
       <c r="I9">
-        <v>1.78488315798343</v>
+        <v>1.056494205571411</v>
       </c>
       <c r="J9">
-        <v>0.2130513522610045</v>
+        <v>0.1143844754423711</v>
       </c>
       <c r="K9">
-        <v>2.608957320897218</v>
+        <v>5.051211165487871</v>
       </c>
       <c r="L9">
-        <v>0.2152132706200618</v>
+        <v>0.1157480997760771</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.557198541196563</v>
+        <v>0.8166151329628164</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.157888405100195</v>
+        <v>0.1510606548978473</v>
       </c>
       <c r="D10">
-        <v>0.1015302327964918</v>
+        <v>0.09921502901870127</v>
       </c>
       <c r="E10">
-        <v>0.1431760084668099</v>
+        <v>0.1004074100599581</v>
       </c>
       <c r="F10">
-        <v>2.510449797784929</v>
+        <v>1.635826354339741</v>
       </c>
       <c r="G10">
-        <v>1.806520622307033</v>
+        <v>1.30042484079533</v>
       </c>
       <c r="H10">
-        <v>1.548661165496299</v>
+        <v>0.7757392787062258</v>
       </c>
       <c r="I10">
-        <v>1.788538795477763</v>
+        <v>1.16460697897891</v>
       </c>
       <c r="J10">
-        <v>0.2138772485301743</v>
+        <v>0.1256075178904794</v>
       </c>
       <c r="K10">
-        <v>2.866320677326541</v>
+        <v>6.012329673820091</v>
       </c>
       <c r="L10">
-        <v>0.2164877919457879</v>
+        <v>0.1275800783150061</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.536164210111103</v>
+        <v>0.7691294660113712</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1600256289665083</v>
+        <v>0.1604399721409067</v>
       </c>
       <c r="D11">
-        <v>0.1031289923987941</v>
+        <v>0.1055324090877718</v>
       </c>
       <c r="E11">
-        <v>0.1440780756842628</v>
+        <v>0.1056139034822294</v>
       </c>
       <c r="F11">
-        <v>2.514584378481658</v>
+        <v>1.709879502104698</v>
       </c>
       <c r="G11">
-        <v>1.810484017901842</v>
+        <v>1.364673057018706</v>
       </c>
       <c r="H11">
-        <v>1.546226948277564</v>
+        <v>0.7992080989728265</v>
       </c>
       <c r="I11">
-        <v>1.791246758873683</v>
+        <v>1.217194397254914</v>
       </c>
       <c r="J11">
-        <v>0.2143441828169514</v>
+        <v>0.1309566451507109</v>
       </c>
       <c r="K11">
-        <v>2.984151908180593</v>
+        <v>6.454962778224512</v>
       </c>
       <c r="L11">
-        <v>0.2171488102335317</v>
+        <v>0.1331627753504776</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.527223798356935</v>
+        <v>0.7492076308792051</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1608420973962694</v>
+        <v>0.1640151601054498</v>
       </c>
       <c r="D12">
-        <v>0.103737562828556</v>
+        <v>0.1079348896822978</v>
       </c>
       <c r="E12">
-        <v>0.144427026568561</v>
+        <v>0.1076064826003531</v>
       </c>
       <c r="F12">
-        <v>2.516358356074633</v>
+        <v>1.738665442315039</v>
       </c>
       <c r="G12">
-        <v>1.812158219853984</v>
+        <v>1.389696316793277</v>
       </c>
       <c r="H12">
-        <v>1.545420025940672</v>
+        <v>0.8084529377870808</v>
       </c>
       <c r="I12">
-        <v>1.792422780562234</v>
+        <v>1.237650762957301</v>
       </c>
       <c r="J12">
-        <v>0.2145341072007909</v>
+        <v>0.1330208673694244</v>
       </c>
       <c r="K12">
-        <v>3.028879146411725</v>
+        <v>6.623486389887148</v>
       </c>
       <c r="L12">
-        <v>0.2174107760586992</v>
+        <v>0.1353084979825212</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.52392857315909</v>
+        <v>0.7419210326619137</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.160665939294347</v>
+        <v>0.1632440928621577</v>
       </c>
       <c r="D13">
-        <v>0.1036063567702001</v>
+        <v>0.1074169963866325</v>
       </c>
       <c r="E13">
-        <v>0.1443515469793404</v>
+        <v>0.1071763769862173</v>
       </c>
       <c r="F13">
-        <v>2.515967027766209</v>
+        <v>1.732431578263217</v>
       </c>
       <c r="G13">
-        <v>1.811789931377859</v>
+        <v>1.38427506483427</v>
       </c>
       <c r="H13">
-        <v>1.545588700248544</v>
+        <v>0.8064454410586279</v>
       </c>
       <c r="I13">
-        <v>1.792162801487564</v>
+        <v>1.233220088387739</v>
       </c>
       <c r="J13">
-        <v>0.2144926208618188</v>
+        <v>0.1325745216817324</v>
       </c>
       <c r="K13">
-        <v>3.019241595576261</v>
+        <v>6.587149230996999</v>
       </c>
       <c r="L13">
-        <v>0.2173538392311016</v>
+        <v>0.1348449206265911</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.524634242345762</v>
+        <v>0.7434786176007862</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1600926573795078</v>
+        <v>0.1607336194460203</v>
       </c>
       <c r="D14">
-        <v>0.1031789969086816</v>
+        <v>0.1057298500396371</v>
       </c>
       <c r="E14">
-        <v>0.1441066367911468</v>
+        <v>0.1057774011243389</v>
       </c>
       <c r="F14">
-        <v>2.514726147775775</v>
+        <v>1.712232397218557</v>
       </c>
       <c r="G14">
-        <v>1.810618277953296</v>
+        <v>1.366717405213564</v>
       </c>
       <c r="H14">
-        <v>1.546158259443558</v>
+        <v>0.7999613129134957</v>
       </c>
       <c r="I14">
-        <v>1.791340491379785</v>
+        <v>1.218866158566527</v>
       </c>
       <c r="J14">
-        <v>0.214359545405344</v>
+        <v>0.1311256741461975</v>
       </c>
       <c r="K14">
-        <v>2.987829506968239</v>
+        <v>6.468808331613559</v>
       </c>
       <c r="L14">
-        <v>0.2171701289472381</v>
+        <v>0.1333386529356346</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.526950888248898</v>
+        <v>0.7486029040966287</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1597424348741896</v>
+        <v>0.1591990161207804</v>
       </c>
       <c r="D15">
-        <v>0.1029176360447934</v>
+        <v>0.1046977952531307</v>
       </c>
       <c r="E15">
-        <v>0.1439575795511061</v>
+        <v>0.1049232854244195</v>
       </c>
       <c r="F15">
-        <v>2.513993211547785</v>
+        <v>1.699958917487876</v>
       </c>
       <c r="G15">
-        <v>1.809923199085603</v>
+        <v>1.356055382008776</v>
       </c>
       <c r="H15">
-        <v>1.546522093703175</v>
+        <v>0.7960371897397636</v>
       </c>
       <c r="I15">
-        <v>1.790856421106156</v>
+        <v>1.210146285354213</v>
       </c>
       <c r="J15">
-        <v>0.2142797393430484</v>
+        <v>0.1302433552401894</v>
       </c>
       <c r="K15">
-        <v>2.968602599829694</v>
+        <v>6.396443427161728</v>
       </c>
       <c r="L15">
-        <v>0.2170591177595682</v>
+        <v>0.1324202357720097</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.528381661901612</v>
+        <v>0.7517756893799259</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1577497358514961</v>
+        <v>0.1504508286336659</v>
       </c>
       <c r="D16">
-        <v>0.1014261942670913</v>
+        <v>0.09880353321678825</v>
       </c>
       <c r="E16">
-        <v>0.1431180874157079</v>
+        <v>0.1000699763525503</v>
       </c>
       <c r="F16">
-        <v>2.510208720810141</v>
+        <v>1.631086780085539</v>
       </c>
       <c r="G16">
-        <v>1.806285831042061</v>
+        <v>1.29631920591649</v>
       </c>
       <c r="H16">
-        <v>1.548836312909799</v>
+        <v>0.7742537690501194</v>
       </c>
       <c r="I16">
-        <v>1.788382877718888</v>
+        <v>1.161243214402759</v>
       </c>
       <c r="J16">
-        <v>0.2138485679986744</v>
+        <v>0.1252631421164736</v>
       </c>
       <c r="K16">
-        <v>2.858635199386526</v>
+        <v>5.983522300350899</v>
       </c>
       <c r="L16">
-        <v>0.2164462249962114</v>
+        <v>0.1272195057553702</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.536761126253182</v>
+        <v>0.7704665247582128</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1565400718368721</v>
+        <v>0.1451230110595247</v>
       </c>
       <c r="D17">
-        <v>0.1005169152129497</v>
+        <v>0.09520442736501167</v>
       </c>
       <c r="E17">
-        <v>0.1426162219476836</v>
+        <v>0.09712779047790221</v>
       </c>
       <c r="F17">
-        <v>2.508257654483288</v>
+        <v>1.590081104219365</v>
       </c>
       <c r="G17">
-        <v>1.804362556720605</v>
+        <v>1.26083199792555</v>
       </c>
       <c r="H17">
-        <v>1.55046044404645</v>
+        <v>0.7614920758873041</v>
       </c>
       <c r="I17">
-        <v>1.787133303623264</v>
+        <v>1.132151253345128</v>
       </c>
       <c r="J17">
-        <v>0.2136074156691663</v>
+        <v>0.1222728035267195</v>
       </c>
       <c r="K17">
-        <v>2.791366144586675</v>
+        <v>5.731683685867722</v>
       </c>
       <c r="L17">
-        <v>0.216091020206477</v>
+        <v>0.1240822841580851</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.542062538441336</v>
+        <v>0.7823737659161694</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1558490244736674</v>
+        <v>0.1420720729035878</v>
       </c>
       <c r="D18">
-        <v>0.09999602241570926</v>
+        <v>0.09314010642081172</v>
       </c>
       <c r="E18">
-        <v>0.1423323988904137</v>
+        <v>0.09544780359493643</v>
       </c>
       <c r="F18">
-        <v>2.507271521555879</v>
+        <v>1.566930503462657</v>
       </c>
       <c r="G18">
-        <v>1.803369390921972</v>
+        <v>1.240824535809367</v>
       </c>
       <c r="H18">
-        <v>1.55146968415977</v>
+        <v>0.7543628500219768</v>
       </c>
       <c r="I18">
-        <v>1.786512923039666</v>
+        <v>1.115735506817842</v>
       </c>
       <c r="J18">
-        <v>0.2134772989265272</v>
+        <v>0.1205755454530362</v>
       </c>
       <c r="K18">
-        <v>2.75274594971728</v>
+        <v>5.587334045857176</v>
       </c>
       <c r="L18">
-        <v>0.215894363442473</v>
+        <v>0.1222965000899094</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.545170901440819</v>
+        <v>0.7893795611392349</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1556158600035644</v>
+        <v>0.1410413181082362</v>
       </c>
       <c r="D19">
-        <v>0.09982001933874329</v>
+        <v>0.09244212088028547</v>
       </c>
       <c r="E19">
-        <v>0.1422371328737597</v>
+        <v>0.09488103931523639</v>
       </c>
       <c r="F19">
-        <v>2.506960992153125</v>
+        <v>1.559164691398777</v>
       </c>
       <c r="G19">
-        <v>1.803052520925178</v>
+        <v>1.234117689274285</v>
       </c>
       <c r="H19">
-        <v>1.551824286807232</v>
+        <v>0.751984317828061</v>
       </c>
       <c r="I19">
-        <v>1.786319753823236</v>
+        <v>1.110230363989487</v>
       </c>
       <c r="J19">
-        <v>0.2134347189595118</v>
+        <v>0.1200046791546967</v>
       </c>
       <c r="K19">
-        <v>2.739682087910182</v>
+        <v>5.538542094944432</v>
       </c>
       <c r="L19">
-        <v>0.2158290932057412</v>
+        <v>0.1216949863126686</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.54623349632481</v>
+        <v>0.7917781195698268</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1566683546111847</v>
+        <v>0.1456887530448085</v>
       </c>
       <c r="D20">
-        <v>0.1006134924914761</v>
+        <v>0.09558695042144194</v>
       </c>
       <c r="E20">
-        <v>0.1426691460160683</v>
+        <v>0.09743970608909081</v>
       </c>
       <c r="F20">
-        <v>2.508451263416646</v>
+        <v>1.594400729046171</v>
       </c>
       <c r="G20">
-        <v>1.804555588011169</v>
+        <v>1.264567390319826</v>
       </c>
       <c r="H20">
-        <v>1.550279780695206</v>
+        <v>0.7628285225720219</v>
       </c>
       <c r="I20">
-        <v>1.787256142746017</v>
+        <v>1.13521494857055</v>
       </c>
       <c r="J20">
-        <v>0.2136321980418785</v>
+        <v>0.1225887553853795</v>
       </c>
       <c r="K20">
-        <v>2.798519693784044</v>
+        <v>5.758439560128068</v>
       </c>
       <c r="L20">
-        <v>0.2161280410695881</v>
+        <v>0.1244142952345797</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.541492074407955</v>
+        <v>0.7810898539475986</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1602608506258605</v>
+        <v>0.1614703482215276</v>
       </c>
       <c r="D21">
-        <v>0.1033044376316639</v>
+        <v>0.1062251176729774</v>
       </c>
       <c r="E21">
-        <v>0.1441783733965032</v>
+        <v>0.1061877273727774</v>
       </c>
       <c r="F21">
-        <v>2.515084967950685</v>
+        <v>1.718144594843125</v>
       </c>
       <c r="G21">
-        <v>1.810957711622336</v>
+        <v>1.371855093635588</v>
       </c>
       <c r="H21">
-        <v>1.545987847608018</v>
+        <v>0.8018558783733454</v>
       </c>
       <c r="I21">
-        <v>1.791577934780875</v>
+        <v>1.223067082083304</v>
       </c>
       <c r="J21">
-        <v>0.2143982772817452</v>
+        <v>0.1315501573106843</v>
       </c>
       <c r="K21">
-        <v>2.997053103893734</v>
+        <v>6.503542183187392</v>
       </c>
       <c r="L21">
-        <v>0.2172237730893016</v>
+        <v>0.1337801962778613</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.526267982205077</v>
+        <v>0.7470906585655541</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.16265039324432</v>
+        <v>0.1719225658195143</v>
       </c>
       <c r="D22">
-        <v>0.1050814920522924</v>
+        <v>0.1132380529005133</v>
       </c>
       <c r="E22">
-        <v>0.1452076132466829</v>
+        <v>0.112028512623926</v>
       </c>
       <c r="F22">
-        <v>2.520634802084516</v>
+        <v>1.803391402131055</v>
       </c>
       <c r="G22">
-        <v>1.816152560294967</v>
+        <v>1.44605558494726</v>
       </c>
       <c r="H22">
-        <v>1.543852398260753</v>
+        <v>0.8294647528892654</v>
       </c>
       <c r="I22">
-        <v>1.795280285113478</v>
+        <v>1.283674801703697</v>
       </c>
       <c r="J22">
-        <v>0.2149753436971906</v>
+        <v>0.1376339976081624</v>
       </c>
       <c r="K22">
-        <v>3.127429784821004</v>
+        <v>6.995872258776956</v>
       </c>
       <c r="L22">
-        <v>0.2180078042998304</v>
+        <v>0.1400875278650702</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.516844576879414</v>
+        <v>0.7263787849284142</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1613712580536202</v>
+        <v>0.1663304697195116</v>
       </c>
       <c r="D23">
-        <v>0.1041313804490898</v>
+        <v>0.1094891542994816</v>
       </c>
       <c r="E23">
-        <v>0.1446543752366125</v>
+        <v>0.1088991584163672</v>
       </c>
       <c r="F23">
-        <v>2.51756151109015</v>
+        <v>1.7574677389388</v>
       </c>
       <c r="G23">
-        <v>1.813287299577865</v>
+        <v>1.406054999386896</v>
       </c>
       <c r="H23">
-        <v>1.544930813688325</v>
+        <v>0.8145255504310285</v>
       </c>
       <c r="I23">
-        <v>1.79322384942931</v>
+        <v>1.251016511652779</v>
       </c>
       <c r="J23">
-        <v>0.2146603667974887</v>
+        <v>0.1343648882250719</v>
       </c>
       <c r="K23">
-        <v>3.057788729821141</v>
+        <v>6.732569604368393</v>
       </c>
       <c r="L23">
-        <v>0.2175831479178498</v>
+        <v>0.1367031271804962</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.52182586323611</v>
+        <v>0.7372894469618103</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1566103442457205</v>
+        <v>0.1454329436123913</v>
       </c>
       <c r="D24">
-        <v>0.100569824095416</v>
+        <v>0.09541399672513506</v>
       </c>
       <c r="E24">
-        <v>0.1426452043842801</v>
+        <v>0.09729865332576182</v>
       </c>
       <c r="F24">
-        <v>2.508363310567248</v>
+        <v>1.592446511031767</v>
       </c>
       <c r="G24">
-        <v>1.804467968010925</v>
+        <v>1.262877395510486</v>
       </c>
       <c r="H24">
-        <v>1.550361223397601</v>
+        <v>0.7622236706650085</v>
       </c>
       <c r="I24">
-        <v>1.787200301876084</v>
+        <v>1.133828891525852</v>
       </c>
       <c r="J24">
-        <v>0.21362096737613</v>
+        <v>0.1224458455173902</v>
       </c>
       <c r="K24">
-        <v>2.795285406861694</v>
+        <v>5.746341881776686</v>
       </c>
       <c r="L24">
-        <v>0.2161112804017904</v>
+        <v>0.1242641376535403</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.541749792698184</v>
+        <v>0.7816698128548012</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1516555706112968</v>
+        <v>0.1233984226752938</v>
       </c>
       <c r="D25">
-        <v>0.0968086023192285</v>
+        <v>0.08044887055979899</v>
       </c>
       <c r="E25">
-        <v>0.140663012971963</v>
+        <v>0.08524843377742286</v>
       </c>
       <c r="F25">
-        <v>2.503642090415113</v>
+        <v>1.430829782619199</v>
       </c>
       <c r="G25">
-        <v>1.79927460480036</v>
+        <v>1.123647544167866</v>
       </c>
       <c r="H25">
-        <v>1.559088787949847</v>
+        <v>0.7137676678667191</v>
       </c>
       <c r="I25">
-        <v>1.784461420054896</v>
+        <v>1.019376106331507</v>
       </c>
       <c r="J25">
-        <v>0.212828174659073</v>
+        <v>0.1104455554996449</v>
       </c>
       <c r="K25">
-        <v>2.514859818393177</v>
+        <v>4.701276864147871</v>
       </c>
       <c r="L25">
-        <v>0.2148161250364069</v>
+        <v>0.111550710146318</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.565501866965739</v>
+        <v>0.8354939762551794</v>
       </c>
       <c r="O25">
         <v>0</v>
